--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value459.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value459.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.260069147477968</v>
+        <v>1.219583868980408</v>
       </c>
       <c r="B1">
-        <v>1.784392300590244</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>3.29058978382795</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.914654405677093</v>
+        <v>1.66819429397583</v>
       </c>
       <c r="E1">
-        <v>0.4582947780313402</v>
+        <v>1.101047992706299</v>
       </c>
     </row>
   </sheetData>
